--- a/Observaciones a formulario Web Tecmar (Ruth)/Obserbaciones Formulario Prototipo.xlsx
+++ b/Observaciones a formulario Web Tecmar (Ruth)/Obserbaciones Formulario Prototipo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="197">
   <si>
     <t>formularios</t>
   </si>
@@ -210,9 +210,6 @@
     <t>tipo residencia</t>
   </si>
   <si>
-    <t>podria entregar descripcion de el o ellos</t>
-  </si>
-  <si>
     <t>p6_rev</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>se aplica la validacion de identidad</t>
   </si>
   <si>
-    <t>LGIdentidadPositiva</t>
-  </si>
-  <si>
     <t>resultado de validacion de identidad</t>
   </si>
   <si>
@@ -297,15 +291,6 @@
     <t>que lesiones origen lesiones</t>
   </si>
   <si>
-    <t>conoce al denunciado, descripcion de el</t>
-  </si>
-  <si>
-    <t>no se guarda en bd</t>
-  </si>
-  <si>
-    <t>relacion que tiene el denuncuado</t>
-  </si>
-  <si>
     <t>posee algun registro o pruebas de los hechos</t>
   </si>
   <si>
@@ -354,18 +339,6 @@
     <t>instrucciones</t>
   </si>
   <si>
-    <t>GLInstruccionFiscal ( DetalleDenuncia )</t>
-  </si>
-  <si>
-    <t>IDFiscalia ( DetalleDenuncia )</t>
-  </si>
-  <si>
-    <t>no esta el campo</t>
-  </si>
-  <si>
-    <t>lista fiscales?</t>
-  </si>
-  <si>
     <t>datos funcionarios</t>
   </si>
   <si>
@@ -375,18 +348,12 @@
     <t>rol en el procedimiento</t>
   </si>
   <si>
-    <t>lista - rol procedimiento</t>
-  </si>
-  <si>
     <t>p11_rev</t>
   </si>
   <si>
     <t>firma electronica o impresa</t>
   </si>
   <si>
-    <t>se puede agregar en la referencia- sacar de formulario</t>
-  </si>
-  <si>
     <t>lista - TPIdioma (PersonaParte)</t>
   </si>
   <si>
@@ -441,27 +408,15 @@
     <t>otro documento de identidad</t>
   </si>
   <si>
-    <t>LGIdentidadPositiva ( DetalleImputado ) - falta compo en bd</t>
-  </si>
-  <si>
     <t>lista - TPRolImputado (RolImputado), guardar mas de 1 rol</t>
   </si>
   <si>
-    <t>LGDetenido - no se encontro en base de datos</t>
-  </si>
-  <si>
-    <t>LGControlDetencion -  no se encontro en base de datos</t>
-  </si>
-  <si>
     <t>no se encontro en base de datos</t>
   </si>
   <si>
     <t>lista - TPCausaDetencion (CausaDetencion) (DetalleDenuncia)</t>
   </si>
   <si>
-    <t>sacar campo</t>
-  </si>
-  <si>
     <t>lista - TPEstadoMigratotio  (PersonaParte)</t>
   </si>
   <si>
@@ -486,9 +441,6 @@
     <t>BDPersona.PersonaArmada</t>
   </si>
   <si>
-    <t>BDPersona.</t>
-  </si>
-  <si>
     <t>ruth  =  campo no tiene sentido</t>
   </si>
   <si>
@@ -528,15 +480,9 @@
     <t>lista - TPRedSocial(ContactoRedSocial)</t>
   </si>
   <si>
-    <t>Glidentificador , ruth no estaba en el formulario anterior</t>
-  </si>
-  <si>
     <t>ruth : solo tiene sentido en el caso que existan redes sociales</t>
   </si>
   <si>
-    <t>no esta en bd</t>
-  </si>
-  <si>
     <t>lista - TPContactoDenuncia(Involucrado)(Direccion)</t>
   </si>
   <si>
@@ -561,9 +507,6 @@
     <t>GLConoceHechos (DenunciaPorMenorEdad)</t>
   </si>
   <si>
-    <t>TPGradoEjecucion (Delito)</t>
-  </si>
-  <si>
     <t>GlModusOperandi (Delito)</t>
   </si>
   <si>
@@ -588,13 +531,82 @@
     <t>dudas de add</t>
   </si>
   <si>
-    <t>InvolucradoDenunciado - datos de denunciado(s)</t>
-  </si>
-  <si>
     <t>lista - TPRelacion (InvolucradoDenunciado)</t>
   </si>
   <si>
     <t>lista - Personas.dbo.TPPersona</t>
+  </si>
+  <si>
+    <t>109 observaciones</t>
+  </si>
+  <si>
+    <t>*** problemática</t>
+  </si>
+  <si>
+    <t>x polmar</t>
+  </si>
+  <si>
+    <t>LGValidaIdentidad ( DetalleImputado )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGIdentidadPositiva ( DetalleImputado ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGDetenido (DetalleImputado) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGPasaControlDetencion  (DetalleImputado) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok </t>
+  </si>
+  <si>
+    <t>que hacer ? dejar /sacar</t>
+  </si>
+  <si>
+    <t>relacion que tiene el denunciado</t>
+  </si>
+  <si>
+    <t>IDPersonaFiscal ( InstruccionFiscal )</t>
+  </si>
+  <si>
+    <t>GLInstruccionFiscal ( DetalleDenuncia ) - GLInstruccionFiscal (InstruccionFiscal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDFiscalia ( DetalleDenuncia ) - IDFiscalia  (InstruccionFiscal) </t>
+  </si>
+  <si>
+    <t>lista de fiscales?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no esta el campo - ok </t>
+  </si>
+  <si>
+    <t>lista - TPGradoEjecucion (Delito)</t>
+  </si>
+  <si>
+    <t>alvaro</t>
+  </si>
+  <si>
+    <t>datos de denunciado(s), InvolucradoDenunciado(GLDescrip…)(LGConoceDe..)</t>
+  </si>
+  <si>
+    <t>66 cambio de texto a listas</t>
+  </si>
+  <si>
+    <t>conoce denunciado,descripcion de el o ellos</t>
+  </si>
+  <si>
+    <t>lista - no hay tabla tp para procedimiento de funcionario</t>
+  </si>
+  <si>
+    <t>duda - alvaro</t>
+  </si>
+  <si>
+    <t>duda - Alvaro</t>
+  </si>
+  <si>
+    <t>Glidentificador , ruth = no estaba en el formulario anterior</t>
   </si>
 </sst>
 </file>
@@ -933,19 +945,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -966,7 +980,7 @@
         <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -977,7 +991,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -994,10 +1008,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
         <v>160</v>
-      </c>
-      <c r="D4" t="s">
-        <v>178</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -1006,7 +1020,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1017,7 +1031,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -1034,7 +1048,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1051,7 +1065,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1068,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -1085,7 +1099,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -1111,7 +1125,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1122,13 +1136,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>150</v>
+      </c>
+      <c r="D13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" t="s">
+        <v>189</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1139,7 +1159,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -1156,7 +1176,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -1165,7 +1185,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1176,7 +1196,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -1193,7 +1213,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -1207,10 +1227,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -1227,7 +1247,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -1244,7 +1264,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -1261,7 +1281,10 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>154</v>
+      </c>
+      <c r="D21" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1269,10 +1292,10 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -1289,16 +1312,19 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
+      <c r="E23" t="s">
+        <v>160</v>
+      </c>
       <c r="F23" t="s">
         <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1314,6 +1340,9 @@
       <c r="D24" t="s">
         <v>27</v>
       </c>
+      <c r="E24" t="s">
+        <v>160</v>
+      </c>
       <c r="F24" t="s">
         <v>38</v>
       </c>
@@ -1326,7 +1355,7 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -1343,7 +1372,7 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1360,10 +1389,10 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" t="s">
-        <v>172</v>
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>160</v>
       </c>
       <c r="F27" t="s">
         <v>38</v>
@@ -1377,7 +1406,10 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="D28" t="s">
+        <v>160</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1394,7 +1426,7 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1411,10 +1443,10 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
         <v>38</v>
@@ -1428,7 +1460,7 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1445,7 +1477,7 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1462,7 +1494,7 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -1479,7 +1511,7 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -1496,7 +1528,7 @@
         <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="F37" t="s">
         <v>47</v>
@@ -1510,10 +1542,13 @@
         <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
+      </c>
+      <c r="E38" t="s">
+        <v>160</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
@@ -1527,7 +1562,7 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="F39" t="s">
         <v>47</v>
@@ -1541,7 +1576,7 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="F40" t="s">
         <v>47</v>
@@ -1555,10 +1590,13 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
+      </c>
+      <c r="E41" t="s">
+        <v>160</v>
       </c>
       <c r="F41" t="s">
         <v>47</v>
@@ -1578,10 +1616,10 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G43" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1598,10 +1636,10 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G44" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1612,13 +1650,13 @@
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1629,16 +1667,16 @@
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1649,13 +1687,13 @@
         <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1666,13 +1704,13 @@
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1680,16 +1718,16 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1700,16 +1738,16 @@
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G50" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1720,16 +1758,16 @@
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D51" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1740,16 +1778,16 @@
         <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D52" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1760,16 +1798,16 @@
         <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1780,13 +1818,13 @@
         <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1797,13 +1835,13 @@
         <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1811,16 +1849,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="C56" t="s">
         <v>190</v>
       </c>
       <c r="D56" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1828,41 +1866,41 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G59" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -1874,287 +1912,296 @@
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G60" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
         <v>27</v>
       </c>
       <c r="F61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G63" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>118</v>
+      </c>
+      <c r="D67" t="s">
+        <v>160</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>118</v>
+      </c>
+      <c r="D68" t="s">
+        <v>160</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
         <v>61</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>118</v>
+      </c>
+      <c r="D69" t="s">
+        <v>160</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
         <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72" t="s">
         <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s">
         <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E73" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" t="s">
+        <v>125</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
         <v>67</v>
-      </c>
-      <c r="B74" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" t="s">
-        <v>136</v>
-      </c>
-      <c r="E74" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C75" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D75" t="s">
         <v>27</v>
       </c>
       <c r="F75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s">
         <v>30</v>
       </c>
       <c r="C76" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
@@ -2166,12 +2213,12 @@
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B78" t="s">
         <v>32</v>
@@ -2179,183 +2226,198 @@
       <c r="C78" t="s">
         <v>33</v>
       </c>
+      <c r="D78" t="s">
+        <v>160</v>
+      </c>
       <c r="E78" t="s">
         <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
         <v>67</v>
-      </c>
-      <c r="B79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79" t="s">
-        <v>72</v>
-      </c>
-      <c r="F79" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" t="s">
+        <v>177</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
         <v>67</v>
       </c>
-      <c r="B80" t="s">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" t="s">
+        <v>130</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" t="s">
         <v>73</v>
       </c>
-      <c r="C80" t="s">
-        <v>141</v>
-      </c>
-      <c r="D80" t="s">
-        <v>27</v>
-      </c>
-      <c r="E80" t="s">
-        <v>145</v>
-      </c>
-      <c r="F80" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="C82" t="s">
+        <v>74</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
         <v>67</v>
       </c>
-      <c r="B81" t="s">
-        <v>74</v>
-      </c>
-      <c r="C81" t="s">
-        <v>142</v>
-      </c>
-      <c r="E81" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" t="s">
+        <v>178</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
         <v>67</v>
       </c>
-      <c r="B82" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" t="s">
         <v>76</v>
       </c>
-      <c r="F82" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="C84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E84" t="s">
+        <v>180</v>
+      </c>
+      <c r="F84" t="s">
         <v>67</v>
       </c>
-      <c r="B83" t="s">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" t="s">
         <v>77</v>
       </c>
-      <c r="C83" t="s">
-        <v>143</v>
-      </c>
-      <c r="E83" t="s">
-        <v>145</v>
-      </c>
-      <c r="F83" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="C85" t="s">
+        <v>132</v>
+      </c>
+      <c r="D85" t="s">
+        <v>160</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
         <v>67</v>
       </c>
-      <c r="B84" t="s">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" t="s">
         <v>78</v>
       </c>
-      <c r="C84" t="s">
-        <v>144</v>
-      </c>
-      <c r="E84" t="s">
-        <v>145</v>
-      </c>
-      <c r="F84" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="C86" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86" t="s">
+        <v>160</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
         <v>67</v>
       </c>
-      <c r="B85" t="s">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B87" t="s">
         <v>79</v>
       </c>
-      <c r="C85" t="s">
-        <v>146</v>
-      </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="C87" t="s">
+        <v>81</v>
+      </c>
+      <c r="D87" t="s">
+        <v>160</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
         <v>67</v>
       </c>
-      <c r="B86" t="s">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>66</v>
+      </c>
+      <c r="B88" t="s">
         <v>80</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C88" t="s">
+        <v>83</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>84</v>
-      </c>
-      <c r="E86" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>67</v>
-      </c>
-      <c r="B87" t="s">
-        <v>81</v>
-      </c>
-      <c r="C87" t="s">
-        <v>83</v>
-      </c>
-      <c r="E87" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>67</v>
-      </c>
-      <c r="B88" t="s">
-        <v>82</v>
-      </c>
-      <c r="C88" t="s">
-        <v>85</v>
-      </c>
-      <c r="E88" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>86</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
@@ -2363,254 +2425,266 @@
       <c r="C90" t="s">
         <v>57</v>
       </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
       <c r="F90" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="G90" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>166</v>
+        <v>150</v>
+      </c>
+      <c r="D91" t="s">
+        <v>160</v>
       </c>
       <c r="E91" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="F91" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B92" t="s">
         <v>18</v>
       </c>
       <c r="C92" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B93" t="s">
         <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E93" t="s">
         <v>9</v>
       </c>
       <c r="F93" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
       </c>
       <c r="F94" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>84</v>
+      </c>
+      <c r="B95" t="s">
+        <v>86</v>
+      </c>
+      <c r="C95" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>84</v>
+      </c>
+      <c r="B96" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>86</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="C96" t="s">
         <v>88</v>
       </c>
-      <c r="C95" t="s">
-        <v>148</v>
-      </c>
-      <c r="E95" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>86</v>
-      </c>
-      <c r="B96" t="s">
-        <v>89</v>
-      </c>
-      <c r="C96" t="s">
-        <v>90</v>
-      </c>
       <c r="E96" t="s">
         <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B97" t="s">
         <v>21</v>
       </c>
       <c r="C97" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B98" t="s">
         <v>58</v>
       </c>
       <c r="C98" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B99" t="s">
         <v>22</v>
       </c>
       <c r="C99" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B100" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C100" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B101" t="s">
         <v>61</v>
       </c>
       <c r="C101" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E101" t="s">
         <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C102" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
       </c>
       <c r="F102" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B103" t="s">
-        <v>93</v>
+        <v>192</v>
+      </c>
+      <c r="C103" t="s">
+        <v>190</v>
       </c>
       <c r="D103" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="F103" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B104" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="C104" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D104" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="F104" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B105" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C105" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D105" t="s">
         <v>27</v>
@@ -2619,220 +2693,249 @@
         <v>9</v>
       </c>
       <c r="F105" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B107" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C107" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E107" t="s">
         <v>9</v>
       </c>
       <c r="F107" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B108" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C108" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E108" t="s">
         <v>9</v>
       </c>
       <c r="F108" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B109" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C109" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B110" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C110" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
       </c>
       <c r="F110" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>93</v>
+      </c>
+      <c r="B111" t="s">
         <v>98</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
+        <v>99</v>
+      </c>
+      <c r="F111" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>102</v>
+      </c>
+      <c r="B113" t="s">
         <v>103</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C113" t="s">
+        <v>141</v>
+      </c>
+      <c r="F113" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>102</v>
+      </c>
+      <c r="B114" t="s">
         <v>104</v>
       </c>
-      <c r="F111" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="C114" t="s">
+        <v>183</v>
+      </c>
+      <c r="D114" t="s">
+        <v>160</v>
+      </c>
+      <c r="E114" t="s">
+        <v>186</v>
+      </c>
+      <c r="F114" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>102</v>
+      </c>
+      <c r="B115" t="s">
+        <v>105</v>
+      </c>
+      <c r="C115" t="s">
+        <v>185</v>
+      </c>
+      <c r="D115" t="s">
+        <v>160</v>
+      </c>
+      <c r="E115" t="s">
+        <v>187</v>
+      </c>
+      <c r="F115" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>102</v>
+      </c>
+      <c r="B116" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116" t="s">
+        <v>184</v>
+      </c>
+      <c r="D116" t="s">
+        <v>160</v>
+      </c>
+      <c r="E116" t="s">
+        <v>187</v>
+      </c>
+      <c r="F116" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>107</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B118" t="s">
         <v>108</v>
       </c>
-      <c r="C113" t="s">
-        <v>157</v>
-      </c>
-      <c r="F113" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="C118" t="s">
+        <v>142</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>107</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B119" t="s">
+        <v>96</v>
+      </c>
+      <c r="C119" t="s">
+        <v>142</v>
+      </c>
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>107</v>
+      </c>
+      <c r="B120" t="s">
         <v>109</v>
       </c>
-      <c r="C114" t="s">
-        <v>156</v>
-      </c>
-      <c r="E114" t="s">
-        <v>115</v>
-      </c>
-      <c r="F114" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="C120" t="s">
+        <v>193</v>
+      </c>
+      <c r="F120" t="s">
+        <v>110</v>
+      </c>
+      <c r="G120" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>107</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B121" t="s">
+        <v>98</v>
+      </c>
+      <c r="C121" t="s">
+        <v>111</v>
+      </c>
+      <c r="F121" t="s">
         <v>110</v>
       </c>
-      <c r="C115" t="s">
-        <v>113</v>
-      </c>
-      <c r="E115" t="s">
-        <v>114</v>
-      </c>
-      <c r="F115" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>107</v>
-      </c>
-      <c r="B116" t="s">
-        <v>111</v>
-      </c>
-      <c r="C116" t="s">
-        <v>112</v>
-      </c>
-      <c r="E116" t="s">
-        <v>114</v>
-      </c>
-      <c r="F116" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>117</v>
-      </c>
-      <c r="C118" t="s">
-        <v>158</v>
-      </c>
-      <c r="E118" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>116</v>
-      </c>
-      <c r="B119" t="s">
-        <v>101</v>
-      </c>
-      <c r="C119" t="s">
-        <v>158</v>
-      </c>
-      <c r="E119" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>116</v>
-      </c>
-      <c r="B120" t="s">
-        <v>118</v>
-      </c>
-      <c r="C120" t="s">
-        <v>119</v>
-      </c>
-      <c r="F120" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>116</v>
-      </c>
-      <c r="B121" t="s">
-        <v>103</v>
-      </c>
-      <c r="C121" t="s">
-        <v>121</v>
-      </c>
-      <c r="F121" t="s">
-        <v>120</v>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>173</v>
+      </c>
+      <c r="C123" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>174</v>
+      </c>
+      <c r="C124" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Observaciones a formulario Web Tecmar (Ruth)/Obserbaciones Formulario Prototipo.xlsx
+++ b/Observaciones a formulario Web Tecmar (Ruth)/Obserbaciones Formulario Prototipo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="197">
   <si>
     <t>formularios</t>
   </si>
@@ -540,9 +540,6 @@
     <t>109 observaciones</t>
   </si>
   <si>
-    <t>*** problemática</t>
-  </si>
-  <si>
     <t>x polmar</t>
   </si>
   <si>
@@ -607,6 +604,9 @@
   </si>
   <si>
     <t>Glidentificador , ruth = no estaba en el formulario anterior</t>
+  </si>
+  <si>
+    <t>*** problemática 25</t>
   </si>
 </sst>
 </file>
@@ -947,15 +947,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -1020,7 +1020,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1125,7 +1125,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1142,13 +1142,13 @@
         <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1185,7 +1185,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
@@ -1494,7 +1494,7 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -1619,7 +1619,7 @@
         <v>64</v>
       </c>
       <c r="G43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1639,7 +1639,7 @@
         <v>64</v>
       </c>
       <c r="G44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1676,7 +1676,7 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1747,7 +1747,7 @@
         <v>64</v>
       </c>
       <c r="G50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1849,10 +1849,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D56" t="s">
         <v>160</v>
@@ -1895,7 +1895,7 @@
         <v>67</v>
       </c>
       <c r="G59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1915,7 +1915,7 @@
         <v>67</v>
       </c>
       <c r="G60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1969,7 +1969,7 @@
         <v>67</v>
       </c>
       <c r="G63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2244,7 +2244,7 @@
         <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
@@ -2261,7 +2261,7 @@
         <v>71</v>
       </c>
       <c r="C80" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
@@ -2312,7 +2312,7 @@
         <v>75</v>
       </c>
       <c r="C83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
@@ -2329,10 +2329,10 @@
         <v>76</v>
       </c>
       <c r="C84" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" t="s">
         <v>179</v>
-      </c>
-      <c r="E84" t="s">
-        <v>180</v>
       </c>
       <c r="F84" t="s">
         <v>67</v>
@@ -2432,7 +2432,7 @@
         <v>85</v>
       </c>
       <c r="G90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2449,7 +2449,7 @@
         <v>160</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F91" t="s">
         <v>85</v>
@@ -2647,10 +2647,10 @@
         <v>84</v>
       </c>
       <c r="B103" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D103" t="s">
         <v>160</v>
@@ -2664,7 +2664,7 @@
         <v>84</v>
       </c>
       <c r="B104" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C104" t="s">
         <v>138</v>
@@ -2800,13 +2800,13 @@
         <v>104</v>
       </c>
       <c r="C114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D114" t="s">
         <v>160</v>
       </c>
       <c r="E114" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F114" t="s">
         <v>101</v>
@@ -2820,13 +2820,13 @@
         <v>105</v>
       </c>
       <c r="C115" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D115" t="s">
         <v>160</v>
       </c>
       <c r="E115" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F115" t="s">
         <v>101</v>
@@ -2840,13 +2840,13 @@
         <v>106</v>
       </c>
       <c r="C116" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D116" t="s">
         <v>160</v>
       </c>
       <c r="E116" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F116" t="s">
         <v>101</v>
@@ -2894,13 +2894,16 @@
         <v>109</v>
       </c>
       <c r="C120" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="D120" t="s">
+        <v>160</v>
       </c>
       <c r="F120" t="s">
         <v>110</v>
       </c>
       <c r="G120" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -2922,15 +2925,15 @@
         <v>173</v>
       </c>
       <c r="C123" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
+        <v>196</v>
+      </c>
+      <c r="C124" t="s">
         <v>174</v>
-      </c>
-      <c r="C124" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
